--- a/4_人種/人種表.xlsx
+++ b/4_人種/人種表.xlsx
@@ -1397,7 +1397,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="B27" sqref="B27:B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>

--- a/4_人種/人種表.xlsx
+++ b/4_人種/人種表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\架空世界アリシア\4_人種\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\K021G1352\OneDrive\デスクトップ\架空世界アリシア\4_人種\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -276,13 +276,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>アボリジニー人</t>
-    <rPh sb="6" eb="7">
-      <t>ニン</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>順属人種</t>
     <rPh sb="0" eb="1">
       <t>ジュン</t>
@@ -643,6 +636,10 @@
     <rPh sb="2" eb="3">
       <t>ニン</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アボリジニー</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1069,49 +1066,49 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1397,7 +1394,7 @@
   <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27:B31"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1410,23 +1407,23 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="25" t="s">
-        <v>72</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="27"/>
+        <v>71</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="26"/>
       <c r="F1" s="25" t="s">
-        <v>71</v>
-      </c>
-      <c r="G1" s="27"/>
+        <v>70</v>
+      </c>
+      <c r="G1" s="26"/>
     </row>
     <row r="2" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="28"/>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="30"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="30"/>
+      <c r="A2" s="27"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="28"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="28"/>
     </row>
     <row r="3" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="10" t="s">
@@ -1436,106 +1433,106 @@
         <v>21</v>
       </c>
       <c r="C3" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="11" t="s">
+      <c r="F3" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="13.8" thickTop="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="29" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="12" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="30"/>
+      <c r="D5" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="F5" s="21"/>
+      <c r="G5" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="30"/>
+      <c r="B6" s="30"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="14" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" s="22"/>
+      <c r="G6" s="5" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="30"/>
+      <c r="B7" s="30"/>
+      <c r="C7" s="20"/>
+      <c r="D7" s="17" t="s">
         <v>33</v>
       </c>
-      <c r="F3" s="11" t="s">
-        <v>51</v>
-      </c>
-      <c r="G3" s="11" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="13.8" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="34" t="s">
-        <v>14</v>
-      </c>
-      <c r="B4" s="34" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="34" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" s="23" t="s">
+      <c r="F7" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="G4" s="12" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A5" s="21"/>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="F5" s="31"/>
-      <c r="G5" s="4" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="21"/>
-      <c r="B6" s="21"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="14" t="s">
-        <v>75</v>
-      </c>
-      <c r="F6" s="32"/>
-      <c r="G6" s="5" t="s">
+      <c r="G7" s="6" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="21"/>
-      <c r="B7" s="21"/>
-      <c r="C7" s="23"/>
-      <c r="D7" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="G7" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
-      <c r="B8" s="21"/>
+      <c r="A8" s="30"/>
+      <c r="B8" s="30"/>
       <c r="C8" s="24" t="s">
         <v>3</v>
       </c>
       <c r="D8" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="F8" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="30"/>
+      <c r="B9" s="20"/>
+      <c r="C9" s="20"/>
+      <c r="D9" s="17" t="s">
         <v>35</v>
       </c>
-      <c r="F8" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="G8" s="3" t="s">
+      <c r="F9" s="21"/>
+      <c r="G9" s="4" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="17" t="s">
-        <v>36</v>
-      </c>
-      <c r="F9" s="31"/>
-      <c r="G9" s="4" t="s">
-        <v>64</v>
-      </c>
-    </row>
     <row r="10" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="21"/>
+      <c r="A10" s="30"/>
       <c r="B10" s="24" t="s">
         <v>17</v>
       </c>
@@ -1543,55 +1540,55 @@
         <v>4</v>
       </c>
       <c r="D10" s="17"/>
-      <c r="F10" s="32"/>
+      <c r="F10" s="22"/>
       <c r="G10" s="5" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
-      <c r="B11" s="21"/>
+      <c r="A11" s="30"/>
+      <c r="B11" s="30"/>
       <c r="C11" s="24" t="s">
         <v>22</v>
       </c>
       <c r="D11" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="30"/>
+      <c r="B12" s="30"/>
+      <c r="C12" s="30"/>
+      <c r="D12" s="17" t="s">
         <v>37</v>
-      </c>
-      <c r="F11" s="23" t="s">
-        <v>55</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="21"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="17" t="s">
-        <v>38</v>
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="30"/>
+      <c r="B13" s="20"/>
+      <c r="C13" s="20"/>
+      <c r="D13" s="17" t="s">
+        <v>38</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="9" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="21"/>
-      <c r="B13" s="23"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="17" t="s">
-        <v>39</v>
-      </c>
-      <c r="F13" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G13" s="9" t="s">
-        <v>68</v>
-      </c>
-    </row>
     <row r="14" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="4" t="s">
         <v>18</v>
       </c>
@@ -1600,109 +1597,109 @@
       </c>
       <c r="D14" s="17"/>
       <c r="F14" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="31" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D15" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G15" s="9" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="C15" s="19" t="s">
+    <row r="16" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="32"/>
+      <c r="B16" s="32"/>
+      <c r="C16" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="D15" s="19" t="s">
+      <c r="D16" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="22"/>
-      <c r="B16" s="22"/>
-      <c r="C16" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="18" t="s">
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="31" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="31" t="s">
         <v>49</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A17" s="20" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="20" t="s">
-        <v>50</v>
       </c>
       <c r="C17" s="19" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="19" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="21"/>
-      <c r="B18" s="22"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="32"/>
       <c r="C18" s="18" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="21"/>
-      <c r="B19" s="20" t="s">
+      <c r="A19" s="30"/>
+      <c r="B19" s="31" t="s">
         <v>19</v>
       </c>
       <c r="C19" s="17" t="s">
         <v>6</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A20" s="21"/>
-      <c r="B20" s="21"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
       <c r="C20" s="24" t="s">
         <v>7</v>
       </c>
       <c r="D20" s="17" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="17" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A21" s="21"/>
-      <c r="B21" s="21"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="17" t="s">
+    <row r="22" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="32"/>
+      <c r="B22" s="32"/>
+      <c r="C22" s="32"/>
+      <c r="D22" s="18" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="22"/>
-      <c r="B22" s="22"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="18" t="s">
-        <v>78</v>
-      </c>
-    </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A23" s="20" t="s">
+      <c r="A23" s="31" t="s">
         <v>0</v>
       </c>
-      <c r="B23" s="20" t="s">
+      <c r="B23" s="31" t="s">
         <v>29</v>
       </c>
       <c r="C23" s="19" t="s">
@@ -1711,15 +1708,15 @@
       <c r="D23" s="19"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A24" s="21"/>
-      <c r="B24" s="23"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="17" t="s">
         <v>10</v>
       </c>
       <c r="D24" s="17"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A25" s="21"/>
+      <c r="A25" s="30"/>
       <c r="B25" s="24" t="s">
         <v>23</v>
       </c>
@@ -1729,62 +1726,62 @@
       <c r="D25" s="17"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A26" s="21"/>
-      <c r="B26" s="23"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="17" t="s">
         <v>28</v>
       </c>
       <c r="D26" s="17"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A27" s="21"/>
+      <c r="A27" s="30"/>
       <c r="B27" s="24" t="s">
         <v>24</v>
       </c>
       <c r="C27" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" s="17"/>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D27" s="17"/>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A28" s="21"/>
-      <c r="B28" s="21"/>
-      <c r="C28" s="17" t="s">
+      <c r="D28" s="17"/>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="D28" s="17"/>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A29" s="21"/>
-      <c r="B29" s="21"/>
-      <c r="C29" s="17" t="s">
+      <c r="D29" s="17"/>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="D29" s="17"/>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A30" s="21"/>
-      <c r="B30" s="21"/>
-      <c r="C30" s="17" t="s">
+      <c r="D30" s="17"/>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="30"/>
+      <c r="B31" s="20"/>
+      <c r="C31" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="D30" s="17"/>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A31" s="21"/>
-      <c r="B31" s="23"/>
-      <c r="C31" s="17" t="s">
-        <v>46</v>
-      </c>
       <c r="D31" s="17"/>
     </row>
     <row r="32" spans="1:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="22"/>
+      <c r="A32" s="32"/>
       <c r="B32" s="18" t="s">
         <v>30</v>
       </c>
       <c r="C32" s="18" t="s">
-        <v>31</v>
+        <v>80</v>
       </c>
       <c r="D32" s="18"/>
     </row>
@@ -1802,6 +1799,17 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A17:A22"/>
+    <mergeCell ref="A4:A14"/>
+    <mergeCell ref="B19:B22"/>
+    <mergeCell ref="C20:C22"/>
+    <mergeCell ref="A23:A32"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B31"/>
     <mergeCell ref="F4:F6"/>
     <mergeCell ref="F8:F10"/>
     <mergeCell ref="F11:F12"/>
@@ -1811,18 +1819,7 @@
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="C11:C13"/>
-    <mergeCell ref="B19:B22"/>
-    <mergeCell ref="C20:C22"/>
-    <mergeCell ref="A23:A32"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="B27:B31"/>
     <mergeCell ref="A1:D2"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="A17:A22"/>
-    <mergeCell ref="A4:A14"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
